--- a/cypress/fixtures/cypress-data.xlsx
+++ b/cypress/fixtures/cypress-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PoolPC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skill\cypress\course-ptt\testsuite\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAA7130-B9C0-468D-8C26-984CBC29B25C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C4A5E8-CA1D-462A-9F76-077CF527210B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{184EEE44-703A-4D37-BB4B-FFF85A06B7DB}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="11520" windowHeight="7890" xr2:uid="{184EEE44-703A-4D37-BB4B-FFF85A06B7DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>firstName</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728BD6ED-0062-40A7-9F45-9B5C72F11221}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A5" sqref="A5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,6 +494,48 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
